--- a/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Habitat-trans_orig.xlsx
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>53.2267915547026</v>
+        <v>53.22679155470259</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>52.31940883734145</v>
+        <v>52.31940883734144</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>52.28291018396034</v>
@@ -678,10 +678,10 @@
         <v>48.70798834242884</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>50.39323962624792</v>
+        <v>50.39323962624791</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>51.47124126610558</v>
+        <v>51.47124126610559</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>52.60575114687055</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>52.69439209002028</v>
+        <v>52.70250262142634</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>51.75992223072375</v>
+        <v>51.71334178084743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51.56181532530933</v>
+        <v>51.65769710913075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52.20524747736125</v>
+        <v>52.19172775046547</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>51.42993535794819</v>
+        <v>51.40911689530313</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>47.7382820296534</v>
+        <v>47.86321300292075</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>49.55208020349503</v>
+        <v>49.55369575295929</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>50.91071164769421</v>
+        <v>50.92497768480511</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>52.22567389588172</v>
+        <v>52.20054554509287</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50.00371858421514</v>
+        <v>50.03116461953196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50.83151237987378</v>
+        <v>50.79323716054819</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>51.72469197009303</v>
+        <v>51.69211102305879</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>53.68563248815934</v>
+        <v>53.67048647371981</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>52.87359154400487</v>
+        <v>52.86314376053249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52.82577194898373</v>
+        <v>52.87313530876367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53.47667539991041</v>
+        <v>53.55202905388671</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>52.48861283726186</v>
+        <v>52.5068545092397</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>49.48440326244184</v>
+        <v>49.47502070781788</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>51.12197391265482</v>
+        <v>51.064993252988</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>51.984477240374</v>
+        <v>52.02024655640608</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>52.94814942569783</v>
+        <v>52.98060197425254</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50.99839140721102</v>
+        <v>50.99218934386246</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51.79296453095866</v>
+        <v>51.78310682524425</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>52.58246058064113</v>
+        <v>52.55763391304638</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>50.82638337128591</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>50.78006910057296</v>
+        <v>50.78006910057295</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>51.50732004694709</v>
@@ -829,7 +829,7 @@
         <v>51.86332664715147</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>51.87457779254966</v>
+        <v>51.87457779254965</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>51.97244875471036</v>
+        <v>51.93407068579659</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>51.37496835667599</v>
+        <v>51.29073414990957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52.47454185266549</v>
+        <v>52.45304449274154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52.48058702915856</v>
+        <v>52.49225372182639</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>50.06949082255749</v>
+        <v>50.08146655020558</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>48.72574220541214</v>
+        <v>48.78632849573225</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>50.16915583868304</v>
+        <v>50.18781595610432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.20981772992746</v>
+        <v>50.17647093585572</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>51.12122373669028</v>
+        <v>51.13993773993283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50.18873771148034</v>
+        <v>50.20223695449809</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51.48649351278684</v>
+        <v>51.49318581790777</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.48203044630128</v>
+        <v>51.49107434555629</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>52.87517766056249</v>
+        <v>52.87117943905395</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>52.39923035646075</v>
+        <v>52.42842756898813</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>53.31059511702736</v>
+        <v>53.36359859945013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53.48208902802048</v>
+        <v>53.45440090769361</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>51.16131378855817</v>
+        <v>51.19352492260033</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>50.02850678366582</v>
+        <v>50.03165284870827</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>51.38748762337461</v>
+        <v>51.38885995348495</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>51.25198632391324</v>
+        <v>51.27438921278788</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>51.83692077967909</v>
+        <v>51.8932785046959</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51.06810723084843</v>
+        <v>51.07195853719382</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52.22818828344342</v>
+        <v>52.19105297930486</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>52.21883740204629</v>
+        <v>52.23464875191623</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>52.89679074341387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52.27997635707832</v>
+        <v>52.27997635707833</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>50.46221861651315</v>
@@ -953,10 +953,10 @@
         <v>51.0772716137785</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>50.63320369313021</v>
+        <v>50.6332036931302</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>51.56105425070399</v>
+        <v>51.561054250704</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>51.27437199439112</v>
@@ -965,7 +965,7 @@
         <v>51.97203584875636</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>51.45144870968116</v>
+        <v>51.45144870968117</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>52.08531587428262</v>
+        <v>52.07665517322299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>51.94469183920685</v>
+        <v>52.02016281231055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52.26478439114847</v>
+        <v>52.18884236733543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51.55157122027902</v>
+        <v>51.50000045677599</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>49.77112278105702</v>
+        <v>49.70139815994025</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>49.16760729854441</v>
+        <v>49.17084371395438</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>50.30263242578986</v>
+        <v>50.37736978734235</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>49.94235001587734</v>
+        <v>50.00176429342128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>51.10456208736402</v>
+        <v>51.10101079699101</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50.759353237014</v>
+        <v>50.78265981157904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51.40802999644665</v>
+        <v>51.47711478160028</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>50.90257957342425</v>
+        <v>50.94136659038943</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>53.21155000424828</v>
+        <v>53.2041452596577</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>53.20371735732285</v>
+        <v>53.22478120414686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53.42306246136378</v>
+        <v>53.37447489052446</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>52.95815417555435</v>
+        <v>52.94990905025892</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>51.20140054536704</v>
+        <v>51.1166989442614</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>50.64403328294275</v>
+        <v>50.60037079212525</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>51.78760404792934</v>
+        <v>51.79751778117122</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>51.28454531021741</v>
+        <v>51.29487981975149</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>51.97657164302179</v>
+        <v>51.98514228144464</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51.72874018504088</v>
+        <v>51.75531891731472</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52.42285609747849</v>
+        <v>52.44386548600406</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>51.92952869038903</v>
+        <v>51.89154005288254</v>
       </c>
     </row>
     <row r="13">
@@ -1074,10 +1074,10 @@
         <v>51.51924033217006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51.67098310364388</v>
+        <v>51.67098310364389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52.38496581820186</v>
+        <v>52.38496581820188</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>50.31466731191188</v>
@@ -1086,7 +1086,7 @@
         <v>48.85159314140179</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>50.1763969492902</v>
+        <v>50.17639694929021</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50.09914642074082</v>
@@ -1098,7 +1098,7 @@
         <v>50.11593761963054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50.88363064160276</v>
+        <v>50.88363064160277</v>
       </c>
       <c r="N13" s="5" t="n">
         <v>51.17295158590289</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>51.61490329374032</v>
+        <v>51.60115772375152</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>50.98541788886812</v>
+        <v>50.92530693267579</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>51.08738158301588</v>
+        <v>51.10800358657397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51.80973511566028</v>
+        <v>51.85718835209876</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>49.69448697612864</v>
+        <v>49.68084608609455</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.1755454693381</v>
+        <v>48.24642635914763</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>49.59379197114416</v>
+        <v>49.52234306857877</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.55506923397216</v>
+        <v>49.42483161799808</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>50.77771055147483</v>
+        <v>50.80986926538559</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49.72804487735276</v>
+        <v>49.66783519277122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50.47326819362434</v>
+        <v>50.49157853280972</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>50.75428150781205</v>
+        <v>50.81561310400658</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>52.61436319154552</v>
+        <v>52.59673844774395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.03686567531163</v>
+        <v>52.00279458536335</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.16923366714661</v>
+        <v>52.22002304043356</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52.91457121711828</v>
+        <v>52.90266678081927</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>50.86953924583439</v>
+        <v>50.83980318852301</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.38848702051862</v>
+        <v>49.46725920437763</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.79422627250676</v>
+        <v>50.72183710062162</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>50.60034924704865</v>
+        <v>50.58771543872975</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>51.52701571871939</v>
+        <v>51.56181843702987</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50.56012322267471</v>
+        <v>50.48447968317219</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.26704945309614</v>
+        <v>51.32299320978452</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>51.52934964911104</v>
+        <v>51.56591869853363</v>
       </c>
     </row>
     <row r="16">
@@ -1207,19 +1207,19 @@
         <v>52.55804277496271</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>52.04860487474579</v>
+        <v>52.0486048747458</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>52.44347057430083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52.6446789507409</v>
+        <v>52.64467895074091</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>50.77200480067182</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>49.22446683611032</v>
+        <v>49.22446683611031</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>50.60832187030361</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>52.28462533983519</v>
+        <v>52.29649153240307</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>51.76442297176563</v>
+        <v>51.78342815579903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52.14736877867387</v>
+        <v>52.17271222632586</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52.35537262798388</v>
+        <v>52.33762702644714</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>50.44993439366063</v>
+        <v>50.46703393800826</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>48.83425558812782</v>
+        <v>48.89682770956298</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>50.26984022034812</v>
+        <v>50.27019150693313</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>50.38151487727997</v>
+        <v>50.37176261345851</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>51.43559183495859</v>
+        <v>51.46247667178969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50.36583621687375</v>
+        <v>50.37509197055565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51.29129804047871</v>
+        <v>51.31260490159671</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>51.43254738585286</v>
+        <v>51.43239893716463</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52.77406758474165</v>
+        <v>52.78753820284867</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52.32120007801576</v>
+        <v>52.33186322024032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52.69804692375975</v>
+        <v>52.72175861556598</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52.92747356654689</v>
+        <v>52.93060016005115</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>51.04512104303689</v>
+        <v>51.05922725717686</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>49.53304875085944</v>
+        <v>49.57261421938985</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>50.90886128857269</v>
+        <v>50.94169249251926</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.94572021439859</v>
+        <v>50.93790061527653</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>51.83642690436615</v>
+        <v>51.8479516222936</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50.82742345019133</v>
+        <v>50.84973980283029</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51.72186069319625</v>
+        <v>51.71372846776369</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>51.84757221832731</v>
+        <v>51.85217571725377</v>
       </c>
     </row>
     <row r="19">
